--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1379273.625536643</v>
+        <v>1483507.33393009</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10650685.75303044</v>
+        <v>10659598.64428204</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22.19039300819632</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>67.95428330242039</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.96411613815231</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>140.3387028990475</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>59.4252091074458</v>
       </c>
       <c r="X5" t="n">
-        <v>253.8293786295305</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868248034</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>48.49236863532148</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>22.89521545117024</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.5318633148431</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>276.7320215053138</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.23490948285971</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>264.6561848198662</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000776</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>107.9721668030647</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>185.4048731212351</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>219.9857967652655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>25.73194049497408</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.16281301712621</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>26.07046444232026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>139.188673966789</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.2893995353419</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3193,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,19 +3237,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>174.7683347992597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3554,13 +3556,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>46.86766651429448</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>13.74238375877685</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>14.73874327217528</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379707</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.155841175242</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.016509199431</v>
+        <v>1270.784773191981</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.5406302391191</v>
+        <v>1866.686420315119</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391191</v>
+        <v>1697.750237387213</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>1547.633597974877</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496683</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>2459.755921915738</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>2263.1271740756</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2263.1271740756</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>2121.370908521006</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1866.686420315119</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1866.686420315119</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>1866.686420315119</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>1866.686420315119</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4556,61 +4558,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520491</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794327</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520487</v>
+        <v>2364.718577705862</v>
       </c>
       <c r="X5" t="n">
-        <v>2752.944093773487</v>
+        <v>1991.252819444782</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811116</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999846</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387333</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332778</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601628</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927809</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064845</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125859</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619339</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297195</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431611</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199868</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471666</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266134</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.75919150118</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.181730276492</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760412</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.464090846022</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1622.65172641914</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U7" t="n">
-        <v>1333.548859544783</v>
+        <v>1356.675339798492</v>
       </c>
       <c r="V7" t="n">
-        <v>1333.548859544783</v>
+        <v>1356.675339798492</v>
       </c>
       <c r="W7" t="n">
-        <v>1333.548859544783</v>
+        <v>1067.258169761531</v>
       </c>
       <c r="X7" t="n">
-        <v>1105.559308646766</v>
+        <v>1067.258169761531</v>
       </c>
       <c r="Y7" t="n">
-        <v>1105.559308646766</v>
+        <v>846.4655906180009</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878908</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903096</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959803</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1378.448727056821</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1123.764238850934</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>834.3470688139736</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>606.3575179159562</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271517</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,34 +5105,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403302</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5191,43 +5193,43 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
         <v>2273.199413378161</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232836</v>
@@ -5428,58 +5430,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854705</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854705</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5504,49 +5506,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756265</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557276</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278207</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1466.177978334236</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1176.760808297275</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>948.7712573992577</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>727.9786782557276</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081858</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153951</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4664.84129331276</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4481.986458967664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4262.384993990606</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>4262.384993990606</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990606</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953645</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055628</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5972,43 +5974,43 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637304</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969311</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6148,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,7 +6253,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6297,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928005</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,25 +6484,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,22 +6548,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703064</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703064</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>695.5020655703064</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>547.5889719879133</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>400.6990244900029</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>233.5029252048828</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6637,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6774,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,16 +7074,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753331</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>282.8695714929399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,25 +7426,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7497,19 +7499,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3260.450525729772</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>3091.514342801865</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>2941.39770338953</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807137</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>249.40968992171</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>107.6978587639081</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4471.231687421535</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>4434.982778844407</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>4180.29829063852</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>3890.88112060156</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>3662.891569703542</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>3442.098990560012</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7628,25 +7630,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-1.220772577620828e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891665</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>178.2123075861794</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.30478226780204</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>32.15184655856248</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.64330621514762</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.27114962944296</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>112.948969357039</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>2.00531331088203</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>118.6564717779744</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>67.52345255978868</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>210.9709121168619</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>932821.1505725038</v>
+        <v>941734.04182411</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.084126442</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121064</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.1790931202</v>
+        <v>137930.4104072218</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909311998</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="G4" t="n">
         <v>9947.144321768899</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768928</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26454,7 +26456,7 @@
         <v>9947.144321768899</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1012661.759216929</v>
+        <v>-832468.8602578097</v>
       </c>
       <c r="C6" t="n">
-        <v>316082.9865106635</v>
+        <v>112644.2448985574</v>
       </c>
       <c r="D6" t="n">
-        <v>316082.9865106635</v>
+        <v>316082.9865106638</v>
       </c>
       <c r="E6" t="n">
-        <v>67984.488853223</v>
+        <v>67984.48885322246</v>
       </c>
       <c r="F6" t="n">
+        <v>393396.9506605778</v>
+      </c>
+      <c r="G6" t="n">
+        <v>393396.9506605778</v>
+      </c>
+      <c r="H6" t="n">
+        <v>393396.9506605779</v>
+      </c>
+      <c r="I6" t="n">
         <v>393396.9506605776</v>
       </c>
-      <c r="G6" t="n">
-        <v>393396.9506605776</v>
-      </c>
-      <c r="H6" t="n">
-        <v>393396.9506605777</v>
-      </c>
-      <c r="I6" t="n">
-        <v>393396.9506605777</v>
-      </c>
       <c r="J6" t="n">
-        <v>175865.7482633002</v>
+        <v>225791.7728505951</v>
       </c>
       <c r="K6" t="n">
-        <v>393396.9506605776</v>
+        <v>344286.8579545233</v>
       </c>
       <c r="L6" t="n">
         <v>393396.9506605777</v>
       </c>
       <c r="M6" t="n">
-        <v>308341.9227250661</v>
+        <v>308341.9227250659</v>
       </c>
       <c r="N6" t="n">
-        <v>393396.9506605777</v>
+        <v>393396.9506605776</v>
       </c>
       <c r="O6" t="n">
         <v>393396.9506605776</v>
       </c>
       <c r="P6" t="n">
-        <v>393396.9506605776</v>
+        <v>393396.9506605777</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757595</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>343.0824987628112</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>301.7768173760487</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.867864043785</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>145.8884512221531</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>289.8157596099672</v>
       </c>
       <c r="X5" t="n">
-        <v>115.9017220489385</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>131.3396115466158</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>196.653733824999</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.2019783486375</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>92.99907917315522</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>127.5970706990776</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>21.55565338574672</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29709,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N15" t="n">
-        <v>428.7353800421396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543365</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,13 +32575,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32788,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M24" t="n">
-        <v>270.948695672726</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33025,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>200.3460366764708</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33734,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,10 +33973,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>489.2891832783074</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34217,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>497.4319917882571</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802862</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N15" t="n">
-        <v>297.3936679588063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427319</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997754</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507077</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.74979223202637</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37005,7 +37007,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066204</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>357.9474711949741</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37865,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1483507.33393009</v>
+        <v>1479453.208170712</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>22.19039300819632</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>337.3504472491502</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.86073670749178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>140.3387028990475</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926702</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>59.4252091074458</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868248034</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.49236863532148</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>279.3751023006579</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>276.7320215053138</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>264.6561848198662</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>107.9721668030647</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,10 +1903,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>63.16281301712621</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,13 +2614,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>156.3923706291108</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>139.188673966789</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.2893995353419</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>13.74238375877685</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>112.6683130937957</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.784773191981</v>
+        <v>1238.326884986528</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>869.3643680461164</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>869.3643680461164</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>869.3643680461164</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>458.3784632565088</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,46 +4336,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796631</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.25053145306</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.25053145306</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191981</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.784773191981</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103101002</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.759829269321</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866266</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.50262973664</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1866.686420315119</v>
+        <v>239.2342186953967</v>
       </c>
       <c r="C4" t="n">
-        <v>1697.750237387213</v>
+        <v>70.29803576748975</v>
       </c>
       <c r="D4" t="n">
-        <v>1547.633597974877</v>
+        <v>70.29803576748975</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392484</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392484</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936617</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496683</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915738</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.1271740756</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.1271740756</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>2121.370908521006</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>1866.686420315119</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W4" t="n">
-        <v>1866.686420315119</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="X4" t="n">
-        <v>1866.686420315119</v>
+        <v>641.6752626691665</v>
       </c>
       <c r="Y4" t="n">
-        <v>1866.686420315119</v>
+        <v>420.8826835256364</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136269</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520491</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794327</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450756</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2364.718577705862</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1991.252819444782</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811116</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999846</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387333</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332778</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601628</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927809</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064845</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125859</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619339</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297195</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431611</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199868</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471666</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266134</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.75919150118</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846022</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798492</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798492</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.258169761531</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.258169761531</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.4655906180009</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609172</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339058</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2693.309871889246</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.170539913434</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1378.448727056821</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1123.764238850934</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>834.3470688139736</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>606.3575179159562</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.5649387724261</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1868.398285759938</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5843,16 +5843,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6074,16 +6074,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,52 +6220,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6314,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.866460342035</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="29">
@@ -6445,34 +6445,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703064</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703064</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>695.5020655703064</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>547.5889719879133</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>400.6990244900029</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>233.5029252048828</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,37 +7399,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7444,7 +7444,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7499,19 +7499,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>416.6057892068301</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>416.6057892068301</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>249.40968992171</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>107.6978587639081</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.220772577620828e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>35.40333084624564</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>178.2123075861794</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>114.1584408891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>83.27114962944296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>24.63391537253375</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>112.948969357039</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.00531331088203</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.52345255978868</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>139.4693302300323</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264416</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.084126442</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062538</v>
@@ -26343,16 +26343,16 @@
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26368,16 +26368,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121064</v>
+        <v>203438.7416121055</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605436</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137930.4104072218</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909311998</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312014</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26432,7 +26432,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26453,7 +26453,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832468.8602578097</v>
+        <v>-832468.8602578093</v>
       </c>
       <c r="C6" t="n">
-        <v>112644.2448985574</v>
+        <v>112644.244898558</v>
       </c>
       <c r="D6" t="n">
-        <v>316082.9865106638</v>
+        <v>316082.9865106632</v>
       </c>
       <c r="E6" t="n">
-        <v>67984.48885322246</v>
+        <v>67637.10959886597</v>
       </c>
       <c r="F6" t="n">
-        <v>393396.9506605778</v>
+        <v>393049.5714062207</v>
       </c>
       <c r="G6" t="n">
-        <v>393396.9506605778</v>
+        <v>393049.5714062208</v>
       </c>
       <c r="H6" t="n">
-        <v>393396.9506605779</v>
+        <v>393049.5714062207</v>
       </c>
       <c r="I6" t="n">
-        <v>393396.9506605776</v>
+        <v>393049.5714062207</v>
       </c>
       <c r="J6" t="n">
-        <v>225791.7728505951</v>
+        <v>225444.3935962381</v>
       </c>
       <c r="K6" t="n">
-        <v>344286.8579545233</v>
+        <v>343939.4787001664</v>
       </c>
       <c r="L6" t="n">
-        <v>393396.9506605777</v>
+        <v>393049.5714062206</v>
       </c>
       <c r="M6" t="n">
-        <v>308341.9227250659</v>
+        <v>307994.5434707092</v>
       </c>
       <c r="N6" t="n">
-        <v>393396.9506605776</v>
+        <v>393049.5714062208</v>
       </c>
       <c r="O6" t="n">
-        <v>393396.9506605776</v>
+        <v>393049.5714062207</v>
       </c>
       <c r="P6" t="n">
-        <v>393396.9506605777</v>
+        <v>393049.5714062207</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>343.0824987628112</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74.19725552380379</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>127.5732259390774</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>145.8884512221531</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>307.2767095024444</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>289.8157596099672</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.3396115466158</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>214.5414662356961</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>102.5552677716038</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.99907917315522</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>21.55565338574672</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>468.377827851028</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32794,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000391</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34792,16 +34792,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>497.4319917882571</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306631</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>406.830144396991</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>395.0475418999253</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>263.67989750701</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1479453.208170712</v>
+        <v>1481213.738473496</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>337.3504472491502</v>
+        <v>279.7359080595628</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.86073670749178</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>127.0034705808606</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>20.29515656310261</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>99.59933623926702</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>71.67037196991681</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>192.1675620474806</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>279.3751023006579</v>
+        <v>239.9164930890881</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1192,16 +1192,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.3373146097481</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F16" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>123.9815576456779</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>103.2360561910028</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>156.3923706291108</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>64.35711883683339</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>156.3923706291104</v>
       </c>
       <c r="T34" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>281.6778446725259</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>164.9367233701398</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>114.9322208041654</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>112.6683130937957</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.326884986528</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="C2" t="n">
-        <v>869.3643680461164</v>
+        <v>1488.848165855093</v>
       </c>
       <c r="D2" t="n">
-        <v>869.3643680461164</v>
+        <v>1130.582467248343</v>
       </c>
       <c r="E2" t="n">
-        <v>869.3643680461164</v>
+        <v>744.7942146500984</v>
       </c>
       <c r="F2" t="n">
-        <v>458.3784632565088</v>
+        <v>333.8083098604909</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4363,19 +4363,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.92672505065</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.92672505065</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.2342186953967</v>
+        <v>1677.224245322481</v>
       </c>
       <c r="C4" t="n">
-        <v>70.29803576748975</v>
+        <v>1508.288062394575</v>
       </c>
       <c r="D4" t="n">
-        <v>70.29803576748975</v>
+        <v>1358.171422982239</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>1358.171422982239</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>1211.281475484329</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>2307.654840194269</v>
       </c>
       <c r="W4" t="n">
-        <v>869.6648135671838</v>
+        <v>2307.654840194269</v>
       </c>
       <c r="X4" t="n">
-        <v>641.6752626691665</v>
+        <v>2079.665289296251</v>
       </c>
       <c r="Y4" t="n">
-        <v>420.8826835256364</v>
+        <v>1858.872710152721</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796247</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796247</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796247</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7704558796247</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943746</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,28 +4634,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4667,13 +4667,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559526</v>
+        <v>2201.719078084901</v>
       </c>
       <c r="C8" t="n">
-        <v>1514.348043559526</v>
+        <v>1832.756561144489</v>
       </c>
       <c r="D8" t="n">
-        <v>1514.348043559526</v>
+        <v>1474.490862537738</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,19 +4801,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4953,13 +4953,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589157</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>532.5350811160199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>532.5350811160199</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>382.4184417036842</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,52 +5260,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5655,22 +5655,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2342.684238942884</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6083,7 +6083,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6317,7 +6317,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6448,10 +6448,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,19 +6460,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="41">
@@ -7405,43 +7405,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.49466557218918</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F16" t="n">
-        <v>35.40333084624564</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>24.63391537253442</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>77.79022981064182</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>24.63391537253375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>43.72409101823369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>24.6339153725342</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>4.845153664065094</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>139.4693302300323</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917189.0841264416</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.084126442</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26368,16 +26368,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121055</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605436</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726386926748091e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312024</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312017</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832468.8602578093</v>
+        <v>-832468.8602578095</v>
       </c>
       <c r="C6" t="n">
-        <v>112644.244898558</v>
+        <v>112644.2448985577</v>
       </c>
       <c r="D6" t="n">
-        <v>316082.9865106632</v>
+        <v>316082.9865106638</v>
       </c>
       <c r="E6" t="n">
-        <v>67637.10959886597</v>
+        <v>67949.75092778691</v>
       </c>
       <c r="F6" t="n">
-        <v>393049.5714062207</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="G6" t="n">
-        <v>393049.5714062208</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="H6" t="n">
-        <v>393049.5714062207</v>
+        <v>393362.2127351421</v>
       </c>
       <c r="I6" t="n">
-        <v>393049.5714062207</v>
+        <v>393362.212735142</v>
       </c>
       <c r="J6" t="n">
-        <v>225444.3935962381</v>
+        <v>225757.0349251594</v>
       </c>
       <c r="K6" t="n">
-        <v>343939.4787001664</v>
+        <v>344252.1200290876</v>
       </c>
       <c r="L6" t="n">
-        <v>393049.5714062206</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="M6" t="n">
-        <v>307994.5434707092</v>
+        <v>308307.1847996303</v>
       </c>
       <c r="N6" t="n">
-        <v>393049.5714062208</v>
+        <v>393362.212735142</v>
       </c>
       <c r="O6" t="n">
-        <v>393049.5714062207</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="P6" t="n">
-        <v>393049.5714062207</v>
+        <v>393362.212735142</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.19725552380379</v>
+        <v>131.8117947133912</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>127.5732259390774</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>39.30312946394358</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>362.4386851003779</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>307.2767095024444</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>214.5414662356961</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>94.35543628911037</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>102.5552677716038</v>
+        <v>142.0138769831736</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P12" t="n">
-        <v>468.377827851028</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32314,7 +32314,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>541.2980521010961</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34792,16 +34792,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>504.1681401741868</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366978</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35962,7 +35962,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>257.9506595121318</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
